--- a/data/A envoyer_antoine(non corrompue)/A envoyer/Plateaux_Exp.xlsx
+++ b/data/A envoyer_antoine(non corrompue)/A envoyer/Plateaux_Exp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
-  <workbookPr showInkAnnotation="0"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbaugier/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abarb\Documents\travail\stage et4\travail\codePlateau\data\A envoyer_antoine(non corrompue)\A envoyer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB40FFD-8200-8F4D-A498-6C578F1D09EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C9B091-A520-4521-A84C-587E9E16D84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -755,30 +755,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7D93CA-901A-7649-9AD0-8274C8590C66}">
+  <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -801,7 +802,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -824,7 +825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="4">
         <v>45461</v>
@@ -845,7 +846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -868,7 +869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="4">
         <v>45461</v>
@@ -889,7 +890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
@@ -912,7 +913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="4">
         <v>45462</v>
@@ -933,7 +934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
@@ -956,7 +957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="4">
         <v>45462</v>
@@ -977,7 +978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
@@ -1000,7 +1001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13" s="11">
         <v>45462</v>
@@ -1021,7 +1022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
@@ -1044,7 +1045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
       <c r="B15" s="4">
         <v>45463</v>
@@ -1065,7 +1066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
@@ -1088,7 +1089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="13">
         <v>45463</v>
@@ -1109,7 +1110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -1132,7 +1133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="13">
         <v>45464</v>
@@ -1153,7 +1154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
@@ -1176,7 +1177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="13">
         <v>45464</v>

--- a/data/A envoyer_antoine(non corrompue)/A envoyer/Plateaux_Exp.xlsx
+++ b/data/A envoyer_antoine(non corrompue)/A envoyer/Plateaux_Exp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abarb\Documents\travail\stage et4\travail\codePlateau\data\A envoyer_antoine(non corrompue)\A envoyer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C9B091-A520-4521-A84C-587E9E16D84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20640AFA-3BA7-40DC-BC09-739169AD4090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -759,7 +759,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/A envoyer_antoine(non corrompue)/A envoyer/Plateaux_Exp.xlsx
+++ b/data/A envoyer_antoine(non corrompue)/A envoyer/Plateaux_Exp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abarb\Documents\travail\stage et4\travail\codePlateau\data\A envoyer_antoine(non corrompue)\A envoyer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20640AFA-3BA7-40DC-BC09-739169AD4090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB06784D-7D37-4CB5-AEC3-A385FA3C17BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/A envoyer_antoine(non corrompue)/A envoyer/Plateaux_Exp.xlsx
+++ b/data/A envoyer_antoine(non corrompue)/A envoyer/Plateaux_Exp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abarb\Documents\travail\stage et4\travail\codePlateau\data\A envoyer_antoine(non corrompue)\A envoyer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB06784D-7D37-4CB5-AEC3-A385FA3C17BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D3E3F8-33CE-4452-B04F-A461B031850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/A envoyer_antoine(non corrompue)/A envoyer/Plateaux_Exp.xlsx
+++ b/data/A envoyer_antoine(non corrompue)/A envoyer/Plateaux_Exp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abarb\Documents\travail\stage et4\travail\codePlateau\data\A envoyer_antoine(non corrompue)\A envoyer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D3E3F8-33CE-4452-B04F-A461B031850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191790D4-08AB-44ED-8724-31CBCA9903FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -759,7 +759,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/A envoyer_antoine(non corrompue)/A envoyer/Plateaux_Exp.xlsx
+++ b/data/A envoyer_antoine(non corrompue)/A envoyer/Plateaux_Exp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abarb\Documents\travail\stage et4\travail\codePlateau\data\A envoyer_antoine(non corrompue)\A envoyer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191790D4-08AB-44ED-8724-31CBCA9903FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C12282-21EE-465A-9C63-AC36F60C5584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/A envoyer_antoine(non corrompue)/A envoyer/Plateaux_Exp.xlsx
+++ b/data/A envoyer_antoine(non corrompue)/A envoyer/Plateaux_Exp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abarb\Documents\travail\stage et4\travail\codePlateau\data\A envoyer_antoine(non corrompue)\A envoyer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C12282-21EE-465A-9C63-AC36F60C5584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A9A158-2CF7-46DC-889D-8D14F31198C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="710" yWindow="680" windowWidth="2370" windowHeight="560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>

--- a/data/A envoyer_antoine(non corrompue)/A envoyer/Plateaux_Exp.xlsx
+++ b/data/A envoyer_antoine(non corrompue)/A envoyer/Plateaux_Exp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abarb\Documents\travail\stage et4\travail\codePlateau\data\A envoyer_antoine(non corrompue)\A envoyer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A9A158-2CF7-46DC-889D-8D14F31198C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5073BF29-A90F-4BA7-820C-C57826D87EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="710" yWindow="680" windowWidth="2370" windowHeight="560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
   <si>
     <t>Plateaux_Test</t>
   </si>
@@ -138,6 +138,66 @@
   </si>
   <si>
     <t>Répétitions</t>
+  </si>
+  <si>
+    <t>18_06_24_Benjamin_Roxane_P1</t>
+  </si>
+  <si>
+    <t>18_06_24_Benjamin_Roxane_P2</t>
+  </si>
+  <si>
+    <t>18_06_24_Dorian_Laura_P1</t>
+  </si>
+  <si>
+    <t>18_06_24_Dorian_Laura_P2</t>
+  </si>
+  <si>
+    <t>19_06_24_CamilleLSG_Nathan_P1</t>
+  </si>
+  <si>
+    <t>19_06_24_CamilleLSG_Nathan_P2</t>
+  </si>
+  <si>
+    <t>19_06_24_Dorian_CamilleSGL_P1</t>
+  </si>
+  <si>
+    <t>19_06_24_Dorian_CamilleSGL_P2</t>
+  </si>
+  <si>
+    <t>19_06_24_Gaetan_Jeanne_P1</t>
+  </si>
+  <si>
+    <t>19_06_24_Gaetan_Jeanne_P2</t>
+  </si>
+  <si>
+    <t>20_06_24_Camille_Dorothee_P1</t>
+  </si>
+  <si>
+    <t>20_06_24_Camille_Dorothee_P2</t>
+  </si>
+  <si>
+    <t>20_06_24_Roxane_Nathan_P1</t>
+  </si>
+  <si>
+    <t>20_06_24_Roxane_Nathan_P2</t>
+  </si>
+  <si>
+    <t>21_06_24_Dorothee_Jeanne_P1</t>
+  </si>
+  <si>
+    <t>21_06_24_Dorothee_Jeanne_P2</t>
+  </si>
+  <si>
+    <t>21_06_24_Eric_Plasticine+GnocciCru_P1</t>
+  </si>
+  <si>
+    <t>21_06_24_Eric_Plasticine+GnocciCru_P2</t>
+  </si>
+  <si>
+    <t>21_06_24_Gaetan_CamilleSGL_P1</t>
+  </si>
+  <si>
+    <t>21_06_24_Gaetan_CamilleSGL_P2</t>
   </si>
 </sst>
 </file>
@@ -756,10 +816,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7D93CA-901A-7649-9AD0-8274C8590C66}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -773,13 +833,13 @@
     <col min="7" max="7" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -802,7 +862,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -824,8 +884,11 @@
       <c r="G4" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="4">
         <v>45461</v>
@@ -845,8 +908,11 @@
       <c r="G5" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -868,8 +934,11 @@
       <c r="G6" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="4">
         <v>45461</v>
@@ -889,8 +958,11 @@
       <c r="G7" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
@@ -912,8 +984,11 @@
       <c r="G8" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="4">
         <v>45462</v>
@@ -933,8 +1008,11 @@
       <c r="G9" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
@@ -956,8 +1034,11 @@
       <c r="G10" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="4">
         <v>45462</v>
@@ -977,8 +1058,11 @@
       <c r="G11" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
@@ -1000,8 +1084,11 @@
       <c r="G12" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13" s="11">
         <v>45462</v>
@@ -1021,8 +1108,11 @@
       <c r="G13" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
@@ -1044,8 +1134,11 @@
       <c r="G14" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
       <c r="B15" s="4">
         <v>45463</v>
@@ -1065,8 +1158,11 @@
       <c r="G15" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
@@ -1088,8 +1184,11 @@
       <c r="G16" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="13">
         <v>45463</v>
@@ -1109,8 +1208,11 @@
       <c r="G17" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -1132,8 +1234,11 @@
       <c r="G18" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="13">
         <v>45464</v>
@@ -1153,8 +1258,11 @@
       <c r="G19" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
@@ -1176,8 +1284,11 @@
       <c r="G20" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="13">
         <v>45464</v>
@@ -1196,6 +1307,19 @@
       </c>
       <c r="G21" s="10">
         <v>2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H23" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
